--- a/doc/spec/Y8960_Specifications.xlsx
+++ b/doc/spec/Y8960_Specifications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Y8960 Cartridge は、MSX用のオーディオ系チップのコンボカートリッジです。</t>
     <rPh sb="21" eb="22">
@@ -165,6 +165,25 @@
   </si>
   <si>
     <t>MIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自作</t>
+    <rPh sb="0" eb="2">
+      <t>ジサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/hra1129/one-chip-msx-kai/tree/main/source/pld/src/peripheral/msx_midi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -244,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,6 +274,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,10 +566,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,7 +577,7 @@
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
@@ -746,6 +771,23 @@
       </c>
       <c r="F15" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -756,8 +798,9 @@
     <hyperlink ref="F7" r:id="rId3"/>
     <hyperlink ref="F9" r:id="rId4"/>
     <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/doc/spec/Y8960_Specifications.xlsx
+++ b/doc/spec/Y8960_Specifications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Y8960 Cartridge は、MSX用のオーディオ系チップのコンボカートリッジです。</t>
     <rPh sb="21" eb="22">
@@ -142,25 +142,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/plgDavid/misc/wiki/Copyright-free-OPLL(x)-ROM-patches</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Copyright free OPLL(x) ROM patches</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>free</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧 MAME License (BSDライセンス改版)</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイハン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -184,6 +170,10 @@
   </si>
   <si>
     <t>https://github.com/hra1129/one-chip-msx-kai/tree/main/source/pld/src/peripheral/msx_midi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/plgDavid/misc/wiki/Copyright-free-OPLL(x)-ROM-patches</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,7 +559,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -643,7 +633,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -660,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -707,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -722,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -737,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -752,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -764,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -778,16 +768,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/spec/Y8960_Specifications.xlsx
+++ b/doc/spec/Y8960_Specifications.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Y8960 Cartridge は、MSX用のオーディオ系チップのコンボカートリッジです。</t>
     <rPh sb="21" eb="22">
@@ -122,14 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/rejunity/tt05-psg-sn76489?tab=readme-ov-file</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Apache 2.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BSD 2-Clause</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,6 +166,22 @@
   </si>
   <si>
     <t>https://github.com/plgDavid/misc/wiki/Copyright-free-OPLL(x)-ROM-patches</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/dnotq/sn76489_audio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sn76489_audio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opl3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BSD 3-Clause</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,7 +567,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -618,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -631,9 +639,11 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -650,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -661,12 +671,14 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
@@ -680,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
@@ -697,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -712,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -727,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -736,13 +748,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -751,16 +763,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -768,16 +780,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -786,9 +798,9 @@
     <hyperlink ref="F6" r:id="rId1"/>
     <hyperlink ref="F10" r:id="rId2"/>
     <hyperlink ref="F7" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F15" r:id="rId4"/>
+    <hyperlink ref="F16" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
